--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,39 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,8 +961,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -944,13 +971,13 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -964,8 +991,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,13 +1049,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,22 +1133,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1122,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,22 +1229,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1209,22 +1261,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,13 +1433,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1383,22 +1453,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,22 +1517,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1470,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,22 +1616,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1559,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,8 +1678,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1617,8 +1710,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,19 +1742,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1675,22 +1774,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1704,19 +1806,22 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="E47" s="3">
         <v>175000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>175000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1733,8 +1838,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +1870,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,8 +1966,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1860,12 +1980,12 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E54" s="3">
         <v>177300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,22 +2092,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1991,22 +2122,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2020,23 +2154,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,23 +2186,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,20 +2250,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,23 +2378,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6300</v>
+        <v>21700</v>
       </c>
       <c r="E66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,22 +2552,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-1400</v>
       </c>
       <c r="E72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,22 +2680,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>171000</v>
+        <v>155400</v>
       </c>
       <c r="E76" s="3">
+        <v>155800</v>
+      </c>
+      <c r="F76" s="3">
         <v>171100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,22 +2781,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,8 +3019,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2814,13 +3031,13 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,8 +3161,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,22 +3335,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>177800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,22 +3399,25 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +714,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +749,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +784,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,8 +988,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -974,13 +1001,13 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -994,8 +1021,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,13 +1036,13 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1073,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1072,8 +1106,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,25 +1176,28 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1168,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,25 +1281,28 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1264,25 +1316,28 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1491,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1456,25 +1526,28 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,25 +1596,28 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1552,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,25 +1703,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,8 +1771,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1806,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,8 +1841,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1754,13 +1853,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1777,25 +1876,28 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1818,13 +1923,13 @@
         <v>175100</v>
       </c>
       <c r="E47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="F47" s="3">
         <v>175000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>175000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1841,8 +1946,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +1981,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2016,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,8 +2086,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,12 +2103,12 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,26 +2156,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E54" s="3">
         <v>177000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,8 +2223,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2104,14 +2235,14 @@
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2136,14 +2270,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2157,8 +2291,11 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2166,17 +2303,17 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2326,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2198,17 +2338,17 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2361,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,23 +2396,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E62" s="3">
         <v>21600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,26 +2536,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E66" s="3">
         <v>21700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,25 +2726,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,25 +2866,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E76" s="3">
         <v>155400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>171100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,25 +2976,28 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3028,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3061,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,25 +3236,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3288,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3321,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3391,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3179,16 +3409,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-175000</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3196,8 +3426,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,8 +3581,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3347,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>177800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3370,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,25 +3651,28 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3432,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,13 +1015,14 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1004,13 +1031,13 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,13 +1069,13 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,19 +1117,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,28 +1219,31 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,28 +1333,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1319,28 +1371,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,19 +1573,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1529,28 +1599,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,28 +1675,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,8 +1790,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1713,19 +1800,19 @@
         <v>1600</v>
       </c>
       <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,8 +1864,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,25 +1940,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1879,28 +1978,31 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1914,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1926,13 +2031,13 @@
         <v>175100</v>
       </c>
       <c r="F47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="G47" s="3">
         <v>175000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>175000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1949,8 +2054,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1984,8 +2092,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2106,12 +2226,12 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E54" s="3">
         <v>176900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>177000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,8 +2354,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2238,14 +2369,14 @@
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,14 +2407,14 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2294,29 +2428,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,29 +2466,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,26 +2542,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E62" s="3">
         <v>19600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2694,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E66" s="3">
         <v>19800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,28 +2900,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,28 +3052,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E76" s="3">
         <v>157100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>155400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>171100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,28 +3171,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,8 +3453,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3248,19 +3465,19 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3409,19 +3639,19 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-175000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>177800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,8 +3903,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3663,19 +3915,19 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,50 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +721,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +762,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +803,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,16 +1041,17 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1034,13 +1060,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1080,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1072,13 +1101,13 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1140,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,22 +1150,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1179,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,31 +1261,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1302,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1343,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1384,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1425,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1630,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,22 +1642,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1671,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1753,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1794,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1876,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
         <v>1600</v>
       </c>
       <c r="F41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1915,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1956,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1997,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,8 +2038,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1952,19 +2050,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1981,31 +2079,34 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2120,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2034,13 +2138,13 @@
         <v>175100</v>
       </c>
       <c r="G47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="H47" s="3">
         <v>175000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>175000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2057,8 +2161,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2202,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2325,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2229,12 +2348,12 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2407,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E54" s="3">
         <v>176800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>177000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,8 +2484,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2372,14 +2502,14 @@
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2393,8 +2523,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,14 +2543,14 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2431,32 +2564,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,32 +2605,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2646,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,29 +2687,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E62" s="3">
         <v>16200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2851,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
         <v>16400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3073,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3237,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>160400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>157100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>155400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>171100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3319,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3365,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3464,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,8 +3669,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,19 +3684,19 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3768,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3850,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3642,19 +3871,19 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-175000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3662,8 +3891,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4072,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3845,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>177800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4113,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,8 +4154,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3918,19 +4169,19 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3942,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,8 +1068,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1063,13 +1090,13 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1083,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1125,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1104,13 +1134,13 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,25 +1184,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,34 +1304,37 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1305,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,8 +1436,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1396,25 +1448,25 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1428,8 +1480,11 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1437,25 +1492,25 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1642,25 +1712,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1674,8 +1744,11 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1683,25 +1756,25 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,8 +1832,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1765,25 +1844,25 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1797,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,34 +1963,35 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1600</v>
       </c>
       <c r="F41" s="3">
         <v>1600</v>
       </c>
       <c r="G41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1918,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +2049,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2000,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,8 +2137,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,19 +2152,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2082,34 +2181,37 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2123,13 +2225,16 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>175100</v>
+        <v>175200</v>
       </c>
       <c r="E47" s="3">
         <v>175100</v>
@@ -2141,13 +2246,13 @@
         <v>175100</v>
       </c>
       <c r="H47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="I47" s="3">
         <v>175000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>175000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2164,8 +2269,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2205,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2351,12 +2471,12 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E54" s="3">
         <v>176700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>177000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,8 +2615,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2505,14 +2636,14 @@
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2657,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2546,14 +2680,14 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2567,8 +2701,11 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2576,26 +2713,26 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +2745,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2617,26 +2757,26 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2690,32 +2833,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
         <v>15900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,34 +3247,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,8 +3423,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3249,25 +3435,25 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
+        <v>160800</v>
+      </c>
+      <c r="F76" s="3">
         <v>160400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>157100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>155800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>171100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,8 +3560,11 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3377,25 +3572,25 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,13 +3886,16 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3687,19 +3904,19 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3874,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-175000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,13 +4318,16 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4093,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>177800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4116,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4157,13 +4406,16 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -4172,19 +4424,19 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,22 +1095,23 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1093,13 +1120,13 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,13 +1152,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1137,13 +1167,13 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,28 +1218,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,37 +1347,40 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,37 +1488,40 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>2200</v>
       </c>
       <c r="E26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1483,37 +1535,40 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>2200</v>
       </c>
       <c r="E27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,28 +1782,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1747,37 +1817,40 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>2200</v>
       </c>
       <c r="E33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,37 +1911,40 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>2200</v>
       </c>
       <c r="E35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,37 +2050,38 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1600</v>
       </c>
       <c r="G41" s="3">
         <v>1600</v>
       </c>
       <c r="H41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,13 +2236,16 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2155,19 +2254,19 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2184,37 +2283,40 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2228,16 +2330,19 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E47" s="3">
         <v>175200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>175100</v>
       </c>
       <c r="F47" s="3">
         <v>175100</v>
@@ -2249,13 +2354,13 @@
         <v>175100</v>
       </c>
       <c r="I47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="J47" s="3">
         <v>175000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>175000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2272,8 +2377,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,38 +2565,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E54" s="3">
         <v>176500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>176900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>177000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>177900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2746,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2639,14 +2770,14 @@
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2683,14 +2817,14 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,35 +2979,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E62" s="3">
         <v>10000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,37 +3421,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,37 +3609,40 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>168500</v>
       </c>
       <c r="E76" s="3">
+        <v>166300</v>
+      </c>
+      <c r="F76" s="3">
         <v>160800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>157100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>155400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>155800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>171100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,37 +3755,40 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>2200</v>
       </c>
       <c r="E81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,16 +4103,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3907,19 +4124,19 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,13 +4310,16 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4107,19 +4337,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-175000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,16 +4564,19 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4342,16 +4588,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>177800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,16 +4658,19 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
@@ -4427,19 +4679,19 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMVC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>PMVC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,25 +1122,26 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1123,13 +1150,13 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,13 +1185,13 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1170,13 +1200,13 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,31 +1252,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,40 +1390,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,13 +1440,16 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1540,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1590,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,31 +1852,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1820,40 +1890,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1990,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,40 +2137,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1600</v>
       </c>
       <c r="H41" s="3">
         <v>1600</v>
       </c>
       <c r="I41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,16 +2335,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2257,19 +2356,19 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2286,40 +2385,43 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2333,19 +2435,22 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E47" s="3">
         <v>175400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>175200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>175100</v>
       </c>
       <c r="G47" s="3">
         <v>175100</v>
@@ -2357,13 +2462,13 @@
         <v>175100</v>
       </c>
       <c r="J47" s="3">
-        <v>175000</v>
+        <v>175100</v>
       </c>
       <c r="K47" s="3">
         <v>175000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>175000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2380,8 +2485,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2594,15 +2714,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E54" s="3">
         <v>176600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>176500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>176700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>176800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>176900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>177000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>177300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,40 +2877,41 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2794,40 +2925,43 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2841,41 +2975,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,41 +3025,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,38 +3125,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,41 +3325,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,40 +3595,43 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,40 +3795,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E76" s="3">
         <v>168500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>160400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>157100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>155400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>155800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>171100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3950,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,19 +4320,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4127,19 +4344,19 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,13 +4540,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4340,19 +4570,19 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-175000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,8 +4824,8 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4591,16 +4837,16 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>177800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,19 +4910,22 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -4682,19 +4934,19 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
